--- a/public/data/yield_loss/yield_table_equatorial_guinea.xlsx
+++ b/public/data/yield_loss/yield_table_equatorial_guinea.xlsx
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>512.4</v>
+        <v>18.68</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>25.02</v>
+        <v>24.26</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>58.83</v>
+        <v>2.56</v>
       </c>
       <c r="V9" t="n">
         <v>30.93</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>134.15</v>
+        <v>144.95</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.62</v>
+        <v>27.87</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1425.56</v>
+        <v>1541.4</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.23</v>
+        <v>48.69</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="V27" t="n">
         <v>89.33</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>52.97</v>
+        <v>29.27</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>21.92</v>
+        <v>21.7</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.45</v>
+        <v>5.47</v>
       </c>
       <c r="V33" t="n">
         <v>30.12</v>
